--- a/biology/Biochimie/Monomère/Monomère.xlsx
+++ b/biology/Biochimie/Monomère/Monomère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Monom%C3%A8re</t>
+          <t>Monomère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En chimie, un monomère est une substance, le plus souvent organique, utilisée dans la synthèse des oligomères et des polymères au cours d'une réaction d'oligomérisation ou de polymérisation[1]. Le mot monomère vient du grec monos, un seul ou une seule, et meros, partie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En chimie, un monomère est une substance, le plus souvent organique, utilisée dans la synthèse des oligomères et des polymères au cours d'une réaction d'oligomérisation ou de polymérisation. Le mot monomère vient du grec monos, un seul ou une seule, et meros, partie.
 En biologie, un monomère (ou sous-unité) est l'élément constitutif des protéines multimériques telles l'hémoglobine. L'agencement des monomères les uns par rapport aux autres est décrit par la structure quaternaire de la protéine.
 Cet article s'intéresse aux monomères selon leur définition en chimie.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Monom%C3%A8re</t>
+          <t>Monomère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Fonctionnalité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un monomère peut contenir une ou plusieurs fonctions chimiques susceptibles de participer à la réaction de polymérisation.
-Chaque groupe fonctionnel d'une molécule de monomère contient un ou plusieurs sites réactifs (ou sites actifs) capables de former une liaison chimique avec une autre molécule de monomère. La fonctionnalité d'un monomère est égale au nombre de sites réactifs que comporte chacune de ses molécules[2].
+Chaque groupe fonctionnel d'une molécule de monomère contient un ou plusieurs sites réactifs (ou sites actifs) capables de former une liaison chimique avec une autre molécule de monomère. La fonctionnalité d'un monomère est égale au nombre de sites réactifs que comporte chacune de ses molécules.
 Si la fonctionnalité des monomères est égale à deux, on parle de monomères bifonctionnels. La polymérisation fournit des polymères linéaires (monodimensionnels) ou cycliques (macrocycles).
 Exemple : les molécules insaturées comportant une double liaison comme la molécule de chlorure de vinyle (nom systématique : chloroéthène) possède deux sites réactifs :
 site réactif →← site réactif
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Monom%C3%A8re</t>
+          <t>Monomère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,10 +566,12 @@
           <t>Nombre de monomères impliqués dans une polymérisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Une polymérisation ayant lieu avec un seul type de monomère s'appelle une homopolymérisation et donne un homopolymère.
-Une polymérisation ayant lieu avec au moins deux types de monomères s'appelle une copolymérisation et donne un copolymère. Les monomères utilisés lors d'une copolymérisation sont appelés comonomères[3]. La copolymérisation peut donner : 
+Une polymérisation ayant lieu avec au moins deux types de monomères s'appelle une copolymérisation et donne un copolymère. Les monomères utilisés lors d'une copolymérisation sont appelés comonomères. La copolymérisation peut donner : 
 un copolymère, lorsque ce n'est pas spécifié, issu de la copolymérisation de deux comonomères ;
 un terpolymère, issu de la copolymérisation de trois comonomères ;
 un quaterpolymère, issu de quatre comonomères.</t>
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Monom%C3%A8re</t>
+          <t>Monomère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Selon leur origine, les monomères peuvent être synthétiques ou naturels. Les principaux monomères naturels sont :
 les acides aminés qui forment les protides (peptides et protéines) ;
@@ -595,8 +613,8 @@
 les isoprènes qui forment les terpènes et les polyisoprènes comme le cis-1,4-polyisoprène (caoutchouc naturel) et le trans-1,4-polyisoprène (gutta-percha, balata).
 Selon leur composition, les monomères peuvent être :
 organiques : cas le plus fréquent ;
-inorganiques-organiques[4] : tétraéthoxysilane ;
-inorganiques : dioxyde de carbone[5],[6], dioxyde de soufre[7].
+inorganiques-organiques : tétraéthoxysilane ;
+inorganiques : dioxyde de carbone dioxyde de soufre.
 Selon leur état physique, les monomères peuvent se présenter à température ambiante et pression atmosphérique à l'état :
 solide - poudre ;
 liquide : dans ce cas le monomère (exemple : le styrène) peut servir à diluer une résine polyester pour la rendre liquide (présente de 5 à 50 % en masse) pour faciliter le laminage de matériel composite ;
@@ -610,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Monom%C3%A8re</t>
+          <t>Monomère</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,7 +646,9 @@
           <t>Monomères utilisés en polymérisation radicalaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tableau suivant classe les monomères utilisés en polymérisation radicalaire du plus réactifs au moins réactifs. Cette réactivité diminue avec l'augmentation de l'encombrement stérique.
 </t>
